--- a/simple/selectionSaleProduct.xlsx
+++ b/simple/selectionSaleProduct.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Ответ клиента</t>
   </si>
   <si>
-    <t xml:space="preserve">Тогда коротко о нас и цели звонка. %Действие%. Хочу подобрать для вас наше решение, а позже созвониться и обсудить его. Могу перед этим задать несколько вопросов?</t>
+    <t xml:space="preserve">Тогда коротко о нас и цели звонка. %Деятельность%. Хочу подобрать для вас наше решение, а позже созвониться и обсудить его. Могу перед этим задать несколько вопросов?</t>
   </si>
   <si>
     <t xml:space="preserve">%Потребность%</t>
@@ -152,8 +152,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
